--- a/testcases/template/资产管理.xlsx
+++ b/testcases/template/资产管理.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCodes\sr_pro\starriver_pro_web\testcases\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,15 +21,15 @@
   <definedNames>
     <definedName name="测试分析">OFFSET('[1]数据源 '!$A$1,0,0,COUNTA('[1]数据源 '!$A:$A),7)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="126">
   <si>
     <t>测试结果</t>
   </si>
@@ -97,9 +97,6 @@
     <t>测试人员</t>
   </si>
   <si>
-    <t>***</t>
-  </si>
-  <si>
     <t>前提条件</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
   </si>
   <si>
     <t>行标签</t>
-  </si>
-  <si>
-    <t>(空白)</t>
   </si>
   <si>
     <t>总计</t>
@@ -640,11 +634,634 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>英文界面</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>型号列表更新</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示网关模型属性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>table列表形式显示模型信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示单灯控制器模型属性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑时网关型号名称不可编辑</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑时单灯控制器型号名称不可编辑</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示网关信息列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示网关设备总数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示网关设备完好率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常显示网关设备总数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常显示网关设备完好率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示网关位置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容与设备配置中对应的设备信息一致</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关table正确显示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据显示后默认选中第一项,显示页面导航</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框输入过滤字符并点击后列表显示过滤后数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关域下拉框显示域列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常显示域列表，默认选中第一项</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击toggle按钮，侧边栏正常实现隐藏和显示的切换</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关显示页面导航</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>当数据为大于一页时，显示页面数列表，反之只显示1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常弹出编辑面板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑网关弹出编辑面板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑网关型号名称不可编辑</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑单灯控制器弹出编辑面板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑单灯控制器型号名称不可编辑</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中英文界面</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文状态页面文字显示英文，中文状态页面显示中文</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图中正常显示选中网关所在坐标</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>asset-model</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>asset-model</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>asset-model</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>asset-model</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>asset-model</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>asset-model</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sset-statistics-009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>单灯控制器table正确显示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单灯控制器显示页面导航</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单灯控制器名称过滤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单灯控制器域下拉框显示域列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>马迅</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关toggle切换功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单灯控制器toggle切换功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sset-statistics-010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sset-statistics-011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sset-statistics-012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sset-statistics-013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sset-statistics-014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sset-statistics-015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sset-statistics-016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sset-statistics-017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sset-statistics-018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sset-statistics-019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>单灯控制器显示信息列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单灯控制器显示设备完好率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单灯控制器显示设备总数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单灯控制器地图显示设备位置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关名称过滤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0.2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加资产管理用例</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -652,7 +1269,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,6 +1345,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -790,7 +1415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -818,14 +1443,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -840,20 +1480,59 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFD8787"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFD8787"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1176,7 +1855,17 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.97150997150998E-2"/>
+          <c:y val="4.5454545454545463E-2"/>
+          <c:w val="0.79520918859501533"/>
+          <c:h val="0.83909878310665709"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="percentStacked"/>
@@ -1190,7 +1879,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Success</c:v>
+                  <c:v>Failed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1284,8 +1973,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1305,7 +1994,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(空白)</c:v>
+                  <c:v>Success</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1400,10 +2089,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1424,11 +2113,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="509071568"/>
-        <c:axId val="509071896"/>
+        <c:axId val="68596864"/>
+        <c:axId val="68598400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="509071568"/>
+        <c:axId val="68596864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1471,7 +2160,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509071896"/>
+        <c:crossAx val="68598400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1479,7 +2168,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="509071896"/>
+        <c:axId val="68598400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,8 +2203,8 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="509071568"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="68596864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1609,7 +2298,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:extLst>
@@ -2237,15 +2926,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>13970</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>318770</xdr:rowOff>
+      <xdr:colOff>13969</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>814070</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2287,7 +2976,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ccc" refreshedDate="43187.380326388891" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="65">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ccc" refreshedDate="43192.39062766204" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="71">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F1048576" sheet="资产管理"/>
   </cacheSource>
@@ -2300,9 +2989,9 @@
         <s v="资产模型"/>
         <s v="资产统计"/>
         <m/>
+        <s v="文字属性" u="1"/>
         <s v="图片属性" u="1"/>
         <s v="视频属性" u="1"/>
-        <s v="文字属性" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="测试目标/步骤" numFmtId="0">
@@ -2314,8 +3003,8 @@
     <cacheField name="测试结果" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
         <s v="Success"/>
+        <s v="Failed"/>
         <m/>
-        <s v="Failed" u="1"/>
         <s v="Skip" u="1"/>
       </sharedItems>
     </cacheField>
@@ -2332,7 +3021,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="65">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="71">
   <r>
     <s v="asset-model-001"/>
     <x v="0"/>
@@ -2346,7 +3035,7 @@
     <x v="0"/>
     <s v="添加网关型号"/>
     <s v="型号列表增加新型号"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
@@ -2354,7 +3043,7 @@
     <x v="0"/>
     <s v="编辑网关型号"/>
     <s v="型号列表显示更新后信息"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
@@ -2362,511 +3051,559 @@
     <x v="0"/>
     <s v="删除网关型号"/>
     <s v="型号列表更新"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
     <s v="asset-model-005"/>
+    <x v="0"/>
+    <s v="显示网关模型属性"/>
+    <s v="table列表形式显示模型信息"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="asset-model-006"/>
+    <x v="0"/>
+    <s v="编辑网关弹出编辑面板"/>
+    <s v="正常弹出编辑面板"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="asset-model-007"/>
+    <x v="0"/>
+    <s v="编辑网关型号名称不可编辑"/>
+    <s v="编辑时网关型号名称不可编辑"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="asset-model-008"/>
     <x v="0"/>
     <s v="显示单灯控制器模型"/>
     <s v="正常显示单灯控制器模型信息"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="asset-model-006"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="asset-model-009"/>
     <x v="0"/>
     <s v="添加单灯控制器型号"/>
     <s v="型号列表增加新型号"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="asset-model-007"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="asset-model-010"/>
     <x v="0"/>
     <s v="编辑单灯控制器型号"/>
     <s v="型号列表显示更新后信息"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="asset-model-008"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="asset-model-011"/>
     <x v="0"/>
     <s v="删除单灯控制器型号"/>
     <s v="型号列表更新"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="asset-model-009"/>
     <x v="0"/>
-    <s v="英文界面"/>
-    <m/>
-    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="asset-model-012"/>
+    <x v="0"/>
+    <s v="显示单灯控制器模型属性"/>
+    <s v="table列表形式显示模型信息"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="asset-model-013"/>
+    <x v="0"/>
+    <s v="编辑单灯控制器弹出编辑面板"/>
+    <s v="正常弹出编辑面板"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="asset-model-014"/>
+    <x v="0"/>
+    <s v="编辑单灯控制器型号名称不可编辑"/>
+    <s v="编辑时单灯控制器型号名称不可编辑"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="asset-model-015"/>
+    <x v="0"/>
+    <s v="中英文界面"/>
+    <s v="英文状态页面文字显示英文，中文状态页面显示中文"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
     <s v="asset-statistics-001"/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <s v="显示网关信息列表"/>
+    <s v="内容与设备配置中对应的设备信息一致"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
     <s v="asset-statistics-002"/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <s v="显示网关设备总数"/>
+    <s v="正常显示网关设备总数"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
     <s v="asset-statistics-003"/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <s v="显示网关设备完好率"/>
+    <s v="正常显示网关设备完好率"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
     <s v="asset-statistics-004"/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <s v="显示网关位置"/>
+    <s v="地图中正常显示选中网关所在坐标"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
     <s v="asset-statistics-005"/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <s v="网关table正确显示"/>
+    <s v="数据显示后默认选中第一项,显示页面导航"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
     <s v="asset-statistics-006"/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <s v="网关显示页面导航"/>
+    <s v="当数据为大于一页时，显示页面数列表，反之只显示1"/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
     <s v="asset-statistics-007"/>
     <x v="1"/>
-    <m/>
-    <m/>
+    <s v="网关名称过滤"/>
+    <s v="输入框输入过滤字符并点击后列表显示过滤后数据"/>
     <x v="1"/>
     <m/>
   </r>
   <r>
     <s v="asset-statistics-008"/>
     <x v="1"/>
-    <m/>
-    <m/>
+    <s v="网关域下拉框显示域列表"/>
+    <s v="正常显示域列表，默认选中第一项"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="asset-statistics-009"/>
     <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
+    <s v="网关toggle切换功能"/>
+    <s v="点击toggle按钮，侧边栏正常实现隐藏和显示的切换"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="asset-statistics-010"/>
     <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
+    <s v="单灯控制器显示信息列表"/>
+    <s v="内容与设备配置中对应的设备信息一致"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="asset-statistics-011"/>
     <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
+    <s v="单灯控制器显示设备总数"/>
+    <s v="正常显示网关设备总数"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="asset-statistics-012"/>
     <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
+    <s v="单灯控制器显示设备完好率"/>
+    <s v="正常显示网关设备完好率"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="asset-statistics-013"/>
     <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
+    <s v="单灯控制器地图显示设备位置"/>
+    <s v="地图中正常显示选中网关所在坐标"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="asset-statistics-014"/>
     <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
+    <s v="单灯控制器table正确显示"/>
+    <s v="数据显示后默认选中第一项,显示页面导航"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="asset-statistics-015"/>
     <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
+    <s v="单灯控制器显示页面导航"/>
+    <s v="当数据为大于一页时，显示页面数列表，反之只显示1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="asset-statistics-016"/>
     <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
+    <s v="单灯控制器名称过滤"/>
+    <s v="输入框输入过滤字符并点击后列表显示过滤后数据"/>
     <x v="1"/>
     <m/>
   </r>
   <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
+    <s v="asset-statistics-017"/>
     <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
+    <s v="单灯控制器域下拉框显示域列表"/>
+    <s v="正常显示域列表，默认选中第一项"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="asset-statistics-018"/>
     <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
+    <s v="单灯控制器toggle切换功能"/>
+    <s v="点击toggle按钮，侧边栏正常实现隐藏和显示的切换"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="asset-statistics-019"/>
     <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <s v="中英文界面"/>
+    <s v="英文状态页面文字显示英文，中文状态页面显示中文"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J2:M6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="7">
-        <item h="1" sd="0" m="1" x="5"/>
+        <item h="1" sd="0" m="1" x="3"/>
         <item h="1" sd="0" x="2"/>
-        <item h="1" sd="0" m="1" x="3"/>
-        <item sd="0" m="1" x="4"/>
+        <item h="1" sd="0" m="1" x="4"/>
+        <item sd="0" m="1" x="5"/>
         <item x="0"/>
         <item x="1"/>
         <item t="default"/>
@@ -2876,10 +3613,10 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="5">
-        <item m="1" x="2"/>
+        <item x="1"/>
         <item m="1" x="3"/>
         <item x="0"/>
-        <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2904,10 +3641,10 @@
   </colFields>
   <colItems count="3">
     <i>
-      <x v="2"/>
+      <x/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -2977,9 +3714,6 @@
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
     </ext>
@@ -3248,35 +3982,35 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="10" max="10" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="17"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
@@ -3288,31 +4022,31 @@
       <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="13">
-        <v>43179</v>
+      <c r="J2" s="12">
+        <v>43187</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="13">
-        <v>43182</v>
+      <c r="J3" s="12">
+        <v>43189</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -3334,10 +4068,10 @@
       <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3354,24 +4088,32 @@
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>22</v>
+      <c r="J5" s="21" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="8">
+        <v>43187</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
@@ -3379,7 +4121,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3438,25 +4180,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="45.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="39.125" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="28.5" customWidth="1"/>
     <col min="8" max="9" width="4" customWidth="1"/>
     <col min="10" max="10" width="15.625"/>
     <col min="11" max="11" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.375"/>
     <col min="15" max="15" width="5.125"/>
@@ -3470,461 +4212,666 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="J2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="J3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="B4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="D4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="J4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18">
+        <v>15</v>
+      </c>
+      <c r="M4" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="B5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="G5" s="16"/>
+      <c r="J5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="18">
+        <v>2</v>
+      </c>
+      <c r="L5" s="18">
+        <v>17</v>
+      </c>
+      <c r="M5" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="J6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="K6" s="18">
+        <v>2</v>
+      </c>
+      <c r="L6" s="18">
         <v>32</v>
       </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="M6" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="23">
-        <v>1</v>
-      </c>
-      <c r="L4" s="23">
-        <v>8</v>
-      </c>
-      <c r="M4" s="23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="D9" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23">
-        <v>8</v>
-      </c>
-      <c r="M5" s="23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="23">
-        <v>1</v>
-      </c>
-      <c r="L6" s="23">
-        <v>16</v>
-      </c>
-      <c r="M6" s="23">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="D13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="B17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="B18" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="B19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="B20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="B21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="B22" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="B23" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="B24" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C24" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -4032,9 +4979,62 @@
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
     </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="E24:E31 E1:E22 E33:E1048576">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"Skip"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+      <formula>"Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Skip"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"Success"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Skip"</formula>
     </cfRule>
@@ -4055,7 +5055,7 @@
           <x14:formula1>
             <xm:f>首页!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E1532</xm:sqref>
+          <xm:sqref>E1:E1538</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/testcases/template/资产管理.xlsx
+++ b/testcases/template/资产管理.xlsx
@@ -23,13 +23,13 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="127">
   <si>
     <t>测试结果</t>
   </si>
@@ -1262,6 +1262,10 @@
   </si>
   <si>
     <t>添加资产管理用例</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表形式显示模型信息</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1289,6 +1293,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1297,6 +1302,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1304,6 +1310,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1311,6 +1318,7 @@
       <sz val="14"/>
       <color theme="8" tint="-0.249977111117893"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1319,12 +1327,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3594,7 +3604,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J2:M6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -4183,7 +4193,7 @@
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4464,8 +4474,8 @@
       <c r="C13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>68</v>
+      <c r="D13" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="G13" s="16"/>
     </row>
